--- a/01_Dimension 1-10/05_External Dial and Digital Caliper Gauge(up to 50mm).xlsx
+++ b/01_Dimension 1-10/05_External Dial and Digital Caliper Gauge(up to 50mm).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 1-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 1-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="28425" windowHeight="15915" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="28425" windowHeight="15915"/>
   </bookViews>
   <sheets>
     <sheet name="Data Record" sheetId="7" r:id="rId1"/>
@@ -1899,7 +1899,7 @@
     <xf numFmtId="181" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2727,73 +2727,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="33" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="33" fillId="0" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="55" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="55" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="55" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="55" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="55" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="55" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="55" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2805,15 +2763,6 @@
     <xf numFmtId="173" fontId="55" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="173" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2823,7 +2772,22 @@
     <xf numFmtId="173" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2836,6 +2800,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2877,6 +2850,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2898,62 +2874,56 @@
     <xf numFmtId="173" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="55" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="55" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="55" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="55" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="55" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="33" fillId="0" borderId="10" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="55" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="33" fillId="0" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="58" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="58" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="58" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2973,23 +2943,17 @@
     <xf numFmtId="1" fontId="58" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="58" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="58" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="58" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3024,13 +2988,28 @@
     <xf numFmtId="182" fontId="14" fillId="0" borderId="3" xfId="12" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="14" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3039,16 +3018,19 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="173" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3120,6 +3102,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3149,18 +3143,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="172" fontId="23" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3273,8 +3255,8 @@
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3340,8 +3322,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -5087,8 +5069,8 @@
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -5154,8 +5136,8 @@
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -30840,8 +30822,8 @@
   </sheetPr>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:U1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22:W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="18.75" customHeight="1"/>
@@ -31231,77 +31213,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23.1" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="337" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
       <c r="L1" s="159" t="s">
         <v>61</v>
       </c>
       <c r="M1" s="159"/>
       <c r="N1" s="159"/>
       <c r="O1" s="159"/>
-      <c r="P1" s="277" t="s">
+      <c r="P1" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="277"/>
-      <c r="R1" s="277"/>
-      <c r="S1" s="277"/>
-      <c r="T1" s="277"/>
-      <c r="U1" s="277"/>
+      <c r="Q1" s="332"/>
+      <c r="R1" s="332"/>
+      <c r="S1" s="332"/>
+      <c r="T1" s="332"/>
+      <c r="U1" s="332"/>
       <c r="V1" s="159"/>
       <c r="W1" s="159"/>
       <c r="X1" s="160" t="s">
         <v>62</v>
       </c>
       <c r="Y1" s="159"/>
-      <c r="Z1" s="284">
+      <c r="Z1" s="336">
         <v>1</v>
       </c>
-      <c r="AA1" s="284"/>
+      <c r="AA1" s="336"/>
       <c r="AB1" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="284">
+      <c r="AC1" s="336">
         <v>1</v>
       </c>
-      <c r="AD1" s="284"/>
+      <c r="AD1" s="336"/>
       <c r="AE1" s="161"/>
     </row>
     <row r="2" spans="1:39" ht="23.1" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="285"/>
-      <c r="K2" s="285"/>
+      <c r="A2" s="337"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
       <c r="L2" s="160" t="s">
         <v>64</v>
       </c>
       <c r="M2" s="159"/>
       <c r="N2" s="160"/>
       <c r="O2" s="159"/>
-      <c r="P2" s="289">
+      <c r="P2" s="341">
         <v>42350</v>
       </c>
-      <c r="Q2" s="289"/>
-      <c r="R2" s="289"/>
-      <c r="S2" s="289"/>
-      <c r="T2" s="289"/>
+      <c r="Q2" s="341"/>
+      <c r="R2" s="341"/>
+      <c r="S2" s="341"/>
+      <c r="T2" s="341"/>
       <c r="U2" s="160" t="s">
         <v>65</v>
       </c>
@@ -31309,30 +31291,30 @@
       <c r="W2" s="163"/>
       <c r="X2" s="163"/>
       <c r="Y2" s="163"/>
-      <c r="Z2" s="288">
+      <c r="Z2" s="340">
         <v>42350</v>
       </c>
-      <c r="AA2" s="288"/>
-      <c r="AB2" s="288"/>
-      <c r="AC2" s="288"/>
-      <c r="AD2" s="288"/>
+      <c r="AA2" s="340"/>
+      <c r="AB2" s="340"/>
+      <c r="AC2" s="340"/>
+      <c r="AD2" s="340"/>
       <c r="AE2" s="161"/>
       <c r="AF2" s="22"/>
     </row>
     <row r="3" spans="1:39" ht="23.1" customHeight="1">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="338" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="286"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338"/>
       <c r="L3" s="159" t="s">
         <v>67</v>
       </c>
@@ -31365,19 +31347,19 @@
       <c r="AF3" s="22"/>
     </row>
     <row r="4" spans="1:39" ht="23.1" customHeight="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="287"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="287"/>
-      <c r="F4" s="287"/>
-      <c r="G4" s="287"/>
-      <c r="H4" s="287"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="287"/>
-      <c r="K4" s="287"/>
+      <c r="B4" s="339"/>
+      <c r="C4" s="339"/>
+      <c r="D4" s="339"/>
+      <c r="E4" s="339"/>
+      <c r="F4" s="339"/>
+      <c r="G4" s="339"/>
+      <c r="H4" s="339"/>
+      <c r="I4" s="339"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="339"/>
       <c r="L4" s="159" t="s">
         <v>27</v>
       </c>
@@ -31414,32 +31396,32 @@
       <c r="C5" s="209"/>
       <c r="D5" s="209"/>
       <c r="E5" s="209"/>
-      <c r="F5" s="290" t="s">
+      <c r="F5" s="342" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="290"/>
-      <c r="J5" s="290"/>
-      <c r="K5" s="290"/>
-      <c r="L5" s="290"/>
-      <c r="M5" s="290"/>
-      <c r="N5" s="290"/>
-      <c r="O5" s="290"/>
-      <c r="P5" s="290"/>
-      <c r="Q5" s="290"/>
-      <c r="R5" s="290"/>
-      <c r="S5" s="290"/>
-      <c r="T5" s="290"/>
-      <c r="U5" s="290"/>
-      <c r="V5" s="290"/>
-      <c r="W5" s="290"/>
-      <c r="X5" s="290"/>
-      <c r="Y5" s="290"/>
-      <c r="Z5" s="290"/>
-      <c r="AA5" s="290"/>
-      <c r="AB5" s="290"/>
-      <c r="AC5" s="290"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="342"/>
+      <c r="N5" s="342"/>
+      <c r="O5" s="342"/>
+      <c r="P5" s="342"/>
+      <c r="Q5" s="342"/>
+      <c r="R5" s="342"/>
+      <c r="S5" s="342"/>
+      <c r="T5" s="342"/>
+      <c r="U5" s="342"/>
+      <c r="V5" s="342"/>
+      <c r="W5" s="342"/>
+      <c r="X5" s="342"/>
+      <c r="Y5" s="342"/>
+      <c r="Z5" s="342"/>
+      <c r="AA5" s="342"/>
+      <c r="AB5" s="342"/>
+      <c r="AC5" s="342"/>
       <c r="AD5" s="174"/>
       <c r="AF5" s="211"/>
     </row>
@@ -31451,34 +31433,34 @@
       <c r="C6" s="209"/>
       <c r="D6" s="209"/>
       <c r="E6" s="209"/>
-      <c r="F6" s="280" t="s">
+      <c r="F6" s="334" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="280"/>
-      <c r="K6" s="280"/>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="280"/>
-      <c r="O6" s="280"/>
+      <c r="G6" s="334"/>
+      <c r="H6" s="334"/>
+      <c r="I6" s="334"/>
+      <c r="J6" s="334"/>
+      <c r="K6" s="334"/>
+      <c r="L6" s="334"/>
+      <c r="M6" s="334"/>
+      <c r="N6" s="334"/>
+      <c r="O6" s="334"/>
       <c r="P6" s="203" t="s">
         <v>73</v>
       </c>
       <c r="Q6" s="203"/>
-      <c r="T6" s="280" t="s">
+      <c r="T6" s="334" t="s">
         <v>89</v>
       </c>
-      <c r="U6" s="280"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
+      <c r="U6" s="334"/>
+      <c r="V6" s="334"/>
+      <c r="W6" s="334"/>
+      <c r="X6" s="334"/>
+      <c r="Y6" s="334"/>
+      <c r="Z6" s="334"/>
+      <c r="AA6" s="334"/>
+      <c r="AB6" s="334"/>
+      <c r="AC6" s="334"/>
       <c r="AD6" s="174"/>
       <c r="AF6" s="211"/>
     </row>
@@ -31486,41 +31468,41 @@
       <c r="A7" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="279">
+      <c r="D7" s="296">
         <v>123</v>
       </c>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="279"/>
-      <c r="J7" s="279"/>
-      <c r="L7" s="283" t="s">
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="296"/>
+      <c r="L7" s="335" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="283"/>
-      <c r="N7" s="283"/>
-      <c r="O7" s="279">
+      <c r="M7" s="335"/>
+      <c r="N7" s="335"/>
+      <c r="O7" s="296">
         <v>456</v>
       </c>
-      <c r="P7" s="279"/>
-      <c r="Q7" s="279"/>
-      <c r="R7" s="279"/>
-      <c r="S7" s="279"/>
-      <c r="T7" s="279"/>
-      <c r="U7" s="279"/>
-      <c r="V7" s="279"/>
-      <c r="W7" s="283" t="s">
+      <c r="P7" s="296"/>
+      <c r="Q7" s="296"/>
+      <c r="R7" s="296"/>
+      <c r="S7" s="296"/>
+      <c r="T7" s="296"/>
+      <c r="U7" s="296"/>
+      <c r="V7" s="296"/>
+      <c r="W7" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="X7" s="283"/>
-      <c r="Y7" s="280">
+      <c r="X7" s="335"/>
+      <c r="Y7" s="334">
         <v>789</v>
       </c>
-      <c r="Z7" s="280"/>
-      <c r="AA7" s="280"/>
-      <c r="AB7" s="280"/>
-      <c r="AC7" s="280"/>
+      <c r="Z7" s="334"/>
+      <c r="AA7" s="334"/>
+      <c r="AB7" s="334"/>
+      <c r="AC7" s="334"/>
       <c r="AD7" s="174"/>
       <c r="AE7" s="212"/>
       <c r="AF7" s="211"/>
@@ -31531,27 +31513,27 @@
       </c>
       <c r="B8" s="174"/>
       <c r="C8" s="209"/>
-      <c r="D8" s="309">
+      <c r="D8" s="295">
         <v>0</v>
       </c>
-      <c r="E8" s="309"/>
+      <c r="E8" s="295"/>
       <c r="F8" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="309">
+      <c r="G8" s="295">
         <v>50</v>
       </c>
-      <c r="H8" s="309"/>
+      <c r="H8" s="295"/>
       <c r="I8" s="174" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="309">
+      <c r="O8" s="295">
         <v>5</v>
       </c>
-      <c r="P8" s="309"/>
+      <c r="P8" s="295"/>
       <c r="Q8" s="169" t="s">
         <v>10</v>
       </c>
@@ -31559,11 +31541,11 @@
       <c r="W8" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="X8" s="281">
+      <c r="X8" s="297">
         <f>O8/2</f>
         <v>2.5</v>
       </c>
-      <c r="Y8" s="281"/>
+      <c r="Y8" s="297"/>
       <c r="Z8" s="169" t="s">
         <v>10</v>
       </c>
@@ -31591,21 +31573,21 @@
         <v>79</v>
       </c>
       <c r="N9" s="171"/>
-      <c r="O9" s="281"/>
-      <c r="P9" s="281"/>
-      <c r="Q9" s="281"/>
-      <c r="R9" s="281"/>
-      <c r="S9" s="281"/>
-      <c r="T9" s="281"/>
-      <c r="U9" s="281"/>
-      <c r="V9" s="281"/>
-      <c r="W9" s="281"/>
-      <c r="X9" s="281"/>
-      <c r="Y9" s="281"/>
-      <c r="Z9" s="281"/>
-      <c r="AA9" s="281"/>
-      <c r="AB9" s="281"/>
-      <c r="AC9" s="281"/>
+      <c r="O9" s="297"/>
+      <c r="P9" s="297"/>
+      <c r="Q9" s="297"/>
+      <c r="R9" s="297"/>
+      <c r="S9" s="297"/>
+      <c r="T9" s="297"/>
+      <c r="U9" s="297"/>
+      <c r="V9" s="297"/>
+      <c r="W9" s="297"/>
+      <c r="X9" s="297"/>
+      <c r="Y9" s="297"/>
+      <c r="Z9" s="297"/>
+      <c r="AA9" s="297"/>
+      <c r="AB9" s="297"/>
+      <c r="AC9" s="297"/>
       <c r="AD9" s="168"/>
       <c r="AE9" s="170"/>
       <c r="AF9" s="22"/>
@@ -31653,14 +31635,14 @@
       <c r="D11" s="171"/>
       <c r="E11" s="171"/>
       <c r="F11" s="171"/>
-      <c r="G11" s="282"/>
-      <c r="H11" s="282"/>
-      <c r="I11" s="282"/>
-      <c r="J11" s="282"/>
-      <c r="K11" s="282"/>
-      <c r="L11" s="282"/>
-      <c r="M11" s="282"/>
-      <c r="N11" s="282"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="318"/>
+      <c r="I11" s="318"/>
+      <c r="J11" s="318"/>
+      <c r="K11" s="318"/>
+      <c r="L11" s="318"/>
+      <c r="M11" s="318"/>
+      <c r="N11" s="318"/>
       <c r="O11" s="168"/>
       <c r="P11" s="168"/>
       <c r="Q11" s="166"/>
@@ -31668,13 +31650,13 @@
         <v>80</v>
       </c>
       <c r="S11" s="178"/>
-      <c r="T11" s="278"/>
-      <c r="U11" s="278"/>
-      <c r="V11" s="278"/>
-      <c r="W11" s="278"/>
-      <c r="X11" s="278"/>
-      <c r="Y11" s="278"/>
-      <c r="Z11" s="278"/>
+      <c r="T11" s="333"/>
+      <c r="U11" s="333"/>
+      <c r="V11" s="333"/>
+      <c r="W11" s="333"/>
+      <c r="X11" s="333"/>
+      <c r="Y11" s="333"/>
+      <c r="Z11" s="333"/>
       <c r="AA11" s="168"/>
       <c r="AB11" s="168"/>
       <c r="AC11" s="168"/>
@@ -31690,568 +31672,568 @@
     </row>
     <row r="13" spans="1:39" s="72" customFormat="1" ht="23.1" customHeight="1">
       <c r="A13" s="213"/>
-      <c r="B13" s="310" t="s">
+      <c r="B13" s="298" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="311"/>
-      <c r="D13" s="311"/>
-      <c r="E13" s="297" t="s">
+      <c r="C13" s="299"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="298"/>
-      <c r="I13" s="298"/>
-      <c r="J13" s="298"/>
-      <c r="K13" s="298"/>
-      <c r="L13" s="298"/>
-      <c r="M13" s="298"/>
-      <c r="N13" s="298"/>
-      <c r="O13" s="298"/>
-      <c r="P13" s="299"/>
-      <c r="Q13" s="314" t="s">
+      <c r="F13" s="303"/>
+      <c r="G13" s="303"/>
+      <c r="H13" s="303"/>
+      <c r="I13" s="303"/>
+      <c r="J13" s="303"/>
+      <c r="K13" s="303"/>
+      <c r="L13" s="303"/>
+      <c r="M13" s="303"/>
+      <c r="N13" s="303"/>
+      <c r="O13" s="303"/>
+      <c r="P13" s="304"/>
+      <c r="Q13" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="311"/>
-      <c r="S13" s="315"/>
-      <c r="T13" s="317" t="s">
+      <c r="R13" s="299"/>
+      <c r="S13" s="306"/>
+      <c r="T13" s="308" t="s">
         <v>2</v>
       </c>
-      <c r="U13" s="318"/>
-      <c r="V13" s="318"/>
-      <c r="W13" s="319"/>
-      <c r="X13" s="323" t="s">
+      <c r="U13" s="309"/>
+      <c r="V13" s="309"/>
+      <c r="W13" s="310"/>
+      <c r="X13" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="Y13" s="324"/>
-      <c r="Z13" s="325"/>
+      <c r="Y13" s="315"/>
+      <c r="Z13" s="316"/>
       <c r="AA13"/>
       <c r="AL13" s="183"/>
       <c r="AM13" s="183"/>
     </row>
     <row r="14" spans="1:39" ht="23.1" customHeight="1">
       <c r="A14" s="213"/>
-      <c r="B14" s="312"/>
-      <c r="C14" s="313"/>
-      <c r="D14" s="313"/>
-      <c r="E14" s="297" t="s">
+      <c r="B14" s="300"/>
+      <c r="C14" s="301"/>
+      <c r="D14" s="301"/>
+      <c r="E14" s="302" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="298"/>
-      <c r="G14" s="299"/>
-      <c r="H14" s="297" t="s">
+      <c r="F14" s="303"/>
+      <c r="G14" s="304"/>
+      <c r="H14" s="302" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="298"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="297" t="s">
+      <c r="I14" s="303"/>
+      <c r="J14" s="304"/>
+      <c r="K14" s="302" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="298"/>
-      <c r="M14" s="299"/>
-      <c r="N14" s="297" t="s">
+      <c r="L14" s="303"/>
+      <c r="M14" s="304"/>
+      <c r="N14" s="302" t="s">
         <v>94</v>
       </c>
-      <c r="O14" s="298"/>
-      <c r="P14" s="299"/>
-      <c r="Q14" s="312"/>
-      <c r="R14" s="313"/>
-      <c r="S14" s="316"/>
-      <c r="T14" s="320"/>
-      <c r="U14" s="321"/>
-      <c r="V14" s="321"/>
-      <c r="W14" s="322"/>
-      <c r="X14" s="326"/>
-      <c r="Y14" s="282"/>
-      <c r="Z14" s="327"/>
+      <c r="O14" s="303"/>
+      <c r="P14" s="304"/>
+      <c r="Q14" s="300"/>
+      <c r="R14" s="301"/>
+      <c r="S14" s="307"/>
+      <c r="T14" s="311"/>
+      <c r="U14" s="312"/>
+      <c r="V14" s="312"/>
+      <c r="W14" s="313"/>
+      <c r="X14" s="317"/>
+      <c r="Y14" s="318"/>
+      <c r="Z14" s="319"/>
       <c r="AA14"/>
       <c r="AL14" s="183"/>
       <c r="AM14" s="183"/>
     </row>
     <row r="15" spans="1:39" ht="23.1" customHeight="1">
-      <c r="B15" s="294">
+      <c r="B15" s="326">
         <f>G8*10%</f>
         <v>5</v>
       </c>
-      <c r="C15" s="295"/>
-      <c r="D15" s="296"/>
-      <c r="E15" s="291">
+      <c r="C15" s="327"/>
+      <c r="D15" s="328"/>
+      <c r="E15" s="329">
         <v>1</v>
       </c>
-      <c r="F15" s="292"/>
-      <c r="G15" s="293"/>
-      <c r="H15" s="291">
+      <c r="F15" s="330"/>
+      <c r="G15" s="331"/>
+      <c r="H15" s="329">
         <v>1</v>
       </c>
-      <c r="I15" s="292"/>
-      <c r="J15" s="293"/>
-      <c r="K15" s="291">
+      <c r="I15" s="330"/>
+      <c r="J15" s="331"/>
+      <c r="K15" s="329">
         <v>1</v>
       </c>
-      <c r="L15" s="292"/>
-      <c r="M15" s="293"/>
-      <c r="N15" s="291">
+      <c r="L15" s="330"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="329">
         <v>1</v>
       </c>
-      <c r="O15" s="292"/>
-      <c r="P15" s="293"/>
-      <c r="Q15" s="294">
+      <c r="O15" s="330"/>
+      <c r="P15" s="331"/>
+      <c r="Q15" s="326">
         <f>AVERAGE(E15:P15)</f>
         <v>1</v>
       </c>
-      <c r="R15" s="295"/>
-      <c r="S15" s="296"/>
-      <c r="T15" s="328">
-        <f>STDEV(E15:P15)/SQRT(4)</f>
+      <c r="R15" s="327"/>
+      <c r="S15" s="328"/>
+      <c r="T15" s="320">
+        <f>_xlfn.STDEV.S(E15:P15)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="329"/>
-      <c r="V15" s="329"/>
-      <c r="W15" s="330"/>
-      <c r="X15" s="331">
+      <c r="U15" s="321"/>
+      <c r="V15" s="321"/>
+      <c r="W15" s="322"/>
+      <c r="X15" s="323">
         <f>Q15-B15</f>
         <v>-4</v>
       </c>
-      <c r="Y15" s="332"/>
-      <c r="Z15" s="333"/>
+      <c r="Y15" s="324"/>
+      <c r="Z15" s="325"/>
       <c r="AA15"/>
       <c r="AL15" s="183"/>
       <c r="AM15" s="183"/>
     </row>
     <row r="16" spans="1:39" ht="23.1" customHeight="1">
-      <c r="B16" s="300">
+      <c r="B16" s="286">
         <f>G8*20%</f>
         <v>10</v>
       </c>
-      <c r="C16" s="301"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="303">
+      <c r="C16" s="287"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="277">
         <v>1.5</v>
       </c>
-      <c r="F16" s="304"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="303">
+      <c r="F16" s="278"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="277">
         <v>1.5</v>
       </c>
-      <c r="I16" s="304"/>
-      <c r="J16" s="305"/>
-      <c r="K16" s="303">
+      <c r="I16" s="278"/>
+      <c r="J16" s="279"/>
+      <c r="K16" s="277">
         <v>1.5</v>
       </c>
-      <c r="L16" s="304"/>
-      <c r="M16" s="305"/>
-      <c r="N16" s="303">
+      <c r="L16" s="278"/>
+      <c r="M16" s="279"/>
+      <c r="N16" s="277">
         <v>1.5</v>
       </c>
-      <c r="O16" s="304"/>
-      <c r="P16" s="305"/>
-      <c r="Q16" s="300">
+      <c r="O16" s="278"/>
+      <c r="P16" s="279"/>
+      <c r="Q16" s="286">
         <f t="shared" ref="Q16:Q24" si="0">AVERAGE(E16:P16)</f>
         <v>1.5</v>
       </c>
-      <c r="R16" s="301"/>
-      <c r="S16" s="302"/>
-      <c r="T16" s="334">
-        <f t="shared" ref="T16:T24" si="1">STDEV(E16:P16)/SQRT(4)</f>
+      <c r="R16" s="287"/>
+      <c r="S16" s="288"/>
+      <c r="T16" s="320">
+        <f t="shared" ref="T16:T24" si="1">_xlfn.STDEV.S(E16:P16)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="335"/>
-      <c r="V16" s="335"/>
-      <c r="W16" s="336"/>
-      <c r="X16" s="306">
+      <c r="U16" s="321"/>
+      <c r="V16" s="321"/>
+      <c r="W16" s="322"/>
+      <c r="X16" s="289">
         <f t="shared" ref="X16:X24" si="2">Q16-B16</f>
         <v>-8.5</v>
       </c>
-      <c r="Y16" s="307"/>
-      <c r="Z16" s="308"/>
+      <c r="Y16" s="290"/>
+      <c r="Z16" s="291"/>
       <c r="AA16"/>
     </row>
     <row r="17" spans="1:29" ht="23.1" customHeight="1">
-      <c r="B17" s="300">
+      <c r="B17" s="286">
         <f>G8*30%</f>
         <v>15</v>
       </c>
-      <c r="C17" s="301"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="303">
+      <c r="C17" s="287"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="277">
         <v>2</v>
       </c>
-      <c r="F17" s="304"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="303">
+      <c r="F17" s="278"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="277">
         <v>2</v>
       </c>
-      <c r="I17" s="304"/>
-      <c r="J17" s="305"/>
-      <c r="K17" s="303">
+      <c r="I17" s="278"/>
+      <c r="J17" s="279"/>
+      <c r="K17" s="277">
         <v>2</v>
       </c>
-      <c r="L17" s="304"/>
-      <c r="M17" s="305"/>
-      <c r="N17" s="303">
+      <c r="L17" s="278"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="277">
         <v>2</v>
       </c>
-      <c r="O17" s="304"/>
-      <c r="P17" s="305"/>
-      <c r="Q17" s="300">
+      <c r="O17" s="278"/>
+      <c r="P17" s="279"/>
+      <c r="Q17" s="286">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R17" s="301"/>
-      <c r="S17" s="302"/>
-      <c r="T17" s="334">
+      <c r="R17" s="287"/>
+      <c r="S17" s="288"/>
+      <c r="T17" s="320">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U17" s="335"/>
-      <c r="V17" s="335"/>
-      <c r="W17" s="336"/>
-      <c r="X17" s="306">
+      <c r="U17" s="321"/>
+      <c r="V17" s="321"/>
+      <c r="W17" s="322"/>
+      <c r="X17" s="289">
         <f t="shared" si="2"/>
         <v>-13</v>
       </c>
-      <c r="Y17" s="307"/>
-      <c r="Z17" s="308"/>
+      <c r="Y17" s="290"/>
+      <c r="Z17" s="291"/>
       <c r="AA17"/>
     </row>
     <row r="18" spans="1:29" ht="23.1" customHeight="1">
-      <c r="B18" s="300">
+      <c r="B18" s="286">
         <f>G8*40%</f>
         <v>20</v>
       </c>
-      <c r="C18" s="301"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="303">
+      <c r="C18" s="287"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="277">
         <v>3</v>
       </c>
-      <c r="F18" s="304"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="303">
+      <c r="F18" s="278"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="277">
         <v>3</v>
       </c>
-      <c r="I18" s="304"/>
-      <c r="J18" s="305"/>
-      <c r="K18" s="303">
+      <c r="I18" s="278"/>
+      <c r="J18" s="279"/>
+      <c r="K18" s="277">
         <v>3</v>
       </c>
-      <c r="L18" s="304"/>
-      <c r="M18" s="305"/>
-      <c r="N18" s="303">
+      <c r="L18" s="278"/>
+      <c r="M18" s="279"/>
+      <c r="N18" s="277">
         <v>3</v>
       </c>
-      <c r="O18" s="304"/>
-      <c r="P18" s="305"/>
-      <c r="Q18" s="300">
+      <c r="O18" s="278"/>
+      <c r="P18" s="279"/>
+      <c r="Q18" s="286">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R18" s="301"/>
-      <c r="S18" s="302"/>
-      <c r="T18" s="334">
+      <c r="R18" s="287"/>
+      <c r="S18" s="288"/>
+      <c r="T18" s="320">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U18" s="335"/>
-      <c r="V18" s="335"/>
-      <c r="W18" s="336"/>
-      <c r="X18" s="306">
+      <c r="U18" s="321"/>
+      <c r="V18" s="321"/>
+      <c r="W18" s="322"/>
+      <c r="X18" s="289">
         <f t="shared" si="2"/>
         <v>-17</v>
       </c>
-      <c r="Y18" s="307"/>
-      <c r="Z18" s="308"/>
+      <c r="Y18" s="290"/>
+      <c r="Z18" s="291"/>
       <c r="AA18"/>
     </row>
     <row r="19" spans="1:29" ht="23.1" customHeight="1">
-      <c r="B19" s="300">
+      <c r="B19" s="286">
         <f>G8*50%</f>
         <v>25</v>
       </c>
-      <c r="C19" s="301"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="303">
+      <c r="C19" s="287"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="277">
         <v>4</v>
       </c>
-      <c r="F19" s="304"/>
-      <c r="G19" s="305"/>
-      <c r="H19" s="303">
+      <c r="F19" s="278"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="277">
         <v>4</v>
       </c>
-      <c r="I19" s="304"/>
-      <c r="J19" s="305"/>
-      <c r="K19" s="303">
+      <c r="I19" s="278"/>
+      <c r="J19" s="279"/>
+      <c r="K19" s="277">
         <v>4</v>
       </c>
-      <c r="L19" s="304"/>
-      <c r="M19" s="305"/>
-      <c r="N19" s="303">
+      <c r="L19" s="278"/>
+      <c r="M19" s="279"/>
+      <c r="N19" s="277">
         <v>4</v>
       </c>
-      <c r="O19" s="304"/>
-      <c r="P19" s="305"/>
-      <c r="Q19" s="300">
+      <c r="O19" s="278"/>
+      <c r="P19" s="279"/>
+      <c r="Q19" s="286">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R19" s="301"/>
-      <c r="S19" s="302"/>
-      <c r="T19" s="334">
+      <c r="R19" s="287"/>
+      <c r="S19" s="288"/>
+      <c r="T19" s="320">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="335"/>
-      <c r="V19" s="335"/>
-      <c r="W19" s="336"/>
-      <c r="X19" s="306">
+      <c r="U19" s="321"/>
+      <c r="V19" s="321"/>
+      <c r="W19" s="322"/>
+      <c r="X19" s="289">
         <f t="shared" si="2"/>
         <v>-21</v>
       </c>
-      <c r="Y19" s="307"/>
-      <c r="Z19" s="308"/>
+      <c r="Y19" s="290"/>
+      <c r="Z19" s="291"/>
       <c r="AA19"/>
     </row>
     <row r="20" spans="1:29" ht="23.1" customHeight="1">
-      <c r="B20" s="300">
+      <c r="B20" s="286">
         <f>G8*60%</f>
         <v>30</v>
       </c>
-      <c r="C20" s="301"/>
-      <c r="D20" s="302"/>
-      <c r="E20" s="303">
+      <c r="C20" s="287"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="277">
         <v>5</v>
       </c>
-      <c r="F20" s="304"/>
-      <c r="G20" s="305"/>
-      <c r="H20" s="303">
+      <c r="F20" s="278"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="277">
         <v>5</v>
       </c>
-      <c r="I20" s="304"/>
-      <c r="J20" s="305"/>
-      <c r="K20" s="303">
+      <c r="I20" s="278"/>
+      <c r="J20" s="279"/>
+      <c r="K20" s="277">
         <v>5</v>
       </c>
-      <c r="L20" s="304"/>
-      <c r="M20" s="305"/>
-      <c r="N20" s="303">
+      <c r="L20" s="278"/>
+      <c r="M20" s="279"/>
+      <c r="N20" s="277">
         <v>5</v>
       </c>
-      <c r="O20" s="304"/>
-      <c r="P20" s="305"/>
-      <c r="Q20" s="300">
+      <c r="O20" s="278"/>
+      <c r="P20" s="279"/>
+      <c r="Q20" s="286">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R20" s="301"/>
-      <c r="S20" s="302"/>
-      <c r="T20" s="334">
+      <c r="R20" s="287"/>
+      <c r="S20" s="288"/>
+      <c r="T20" s="320">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="335"/>
-      <c r="V20" s="335"/>
-      <c r="W20" s="336"/>
-      <c r="X20" s="306">
+      <c r="U20" s="321"/>
+      <c r="V20" s="321"/>
+      <c r="W20" s="322"/>
+      <c r="X20" s="289">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="Y20" s="307"/>
-      <c r="Z20" s="308"/>
+      <c r="Y20" s="290"/>
+      <c r="Z20" s="291"/>
       <c r="AA20"/>
     </row>
     <row r="21" spans="1:29" ht="23.1" customHeight="1">
-      <c r="B21" s="300">
+      <c r="B21" s="286">
         <f>G8*70%</f>
         <v>35</v>
       </c>
-      <c r="C21" s="301"/>
-      <c r="D21" s="302"/>
-      <c r="E21" s="303">
+      <c r="C21" s="287"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="277">
         <f>B21</f>
         <v>35</v>
       </c>
-      <c r="F21" s="304"/>
-      <c r="G21" s="305"/>
-      <c r="H21" s="303">
+      <c r="F21" s="278"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="277">
         <f>E21</f>
         <v>35</v>
       </c>
-      <c r="I21" s="304"/>
-      <c r="J21" s="305"/>
-      <c r="K21" s="303">
+      <c r="I21" s="278"/>
+      <c r="J21" s="279"/>
+      <c r="K21" s="277">
         <f>H21</f>
         <v>35</v>
       </c>
-      <c r="L21" s="304"/>
-      <c r="M21" s="305"/>
-      <c r="N21" s="303">
+      <c r="L21" s="278"/>
+      <c r="M21" s="279"/>
+      <c r="N21" s="277">
         <f>K21</f>
         <v>35</v>
       </c>
-      <c r="O21" s="304"/>
-      <c r="P21" s="305"/>
-      <c r="Q21" s="300">
+      <c r="O21" s="278"/>
+      <c r="P21" s="279"/>
+      <c r="Q21" s="286">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="R21" s="301"/>
-      <c r="S21" s="302"/>
-      <c r="T21" s="334">
+      <c r="R21" s="287"/>
+      <c r="S21" s="288"/>
+      <c r="T21" s="320">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U21" s="335"/>
-      <c r="V21" s="335"/>
-      <c r="W21" s="336"/>
-      <c r="X21" s="306">
+      <c r="U21" s="321"/>
+      <c r="V21" s="321"/>
+      <c r="W21" s="322"/>
+      <c r="X21" s="289">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="307"/>
-      <c r="Z21" s="308"/>
+      <c r="Y21" s="290"/>
+      <c r="Z21" s="291"/>
       <c r="AA21"/>
     </row>
     <row r="22" spans="1:29" ht="23.1" customHeight="1">
-      <c r="B22" s="300">
+      <c r="B22" s="286">
         <f>G8*80%</f>
         <v>40</v>
       </c>
-      <c r="C22" s="301"/>
-      <c r="D22" s="302"/>
-      <c r="E22" s="303">
+      <c r="C22" s="287"/>
+      <c r="D22" s="288"/>
+      <c r="E22" s="277">
         <v>15</v>
       </c>
-      <c r="F22" s="304"/>
-      <c r="G22" s="305"/>
-      <c r="H22" s="303">
+      <c r="F22" s="278"/>
+      <c r="G22" s="279"/>
+      <c r="H22" s="277">
         <v>15</v>
       </c>
-      <c r="I22" s="304"/>
-      <c r="J22" s="305"/>
-      <c r="K22" s="303">
+      <c r="I22" s="278"/>
+      <c r="J22" s="279"/>
+      <c r="K22" s="277">
         <v>15</v>
       </c>
-      <c r="L22" s="304"/>
-      <c r="M22" s="305"/>
-      <c r="N22" s="303">
+      <c r="L22" s="278"/>
+      <c r="M22" s="279"/>
+      <c r="N22" s="277">
         <v>15</v>
       </c>
-      <c r="O22" s="304"/>
-      <c r="P22" s="305"/>
-      <c r="Q22" s="300">
+      <c r="O22" s="278"/>
+      <c r="P22" s="279"/>
+      <c r="Q22" s="286">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R22" s="301"/>
-      <c r="S22" s="302"/>
-      <c r="T22" s="334">
+      <c r="R22" s="287"/>
+      <c r="S22" s="288"/>
+      <c r="T22" s="320">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U22" s="335"/>
-      <c r="V22" s="335"/>
-      <c r="W22" s="336"/>
-      <c r="X22" s="306">
+      <c r="U22" s="321"/>
+      <c r="V22" s="321"/>
+      <c r="W22" s="322"/>
+      <c r="X22" s="289">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="Y22" s="307"/>
-      <c r="Z22" s="308"/>
+      <c r="Y22" s="290"/>
+      <c r="Z22" s="291"/>
       <c r="AA22"/>
     </row>
     <row r="23" spans="1:29" ht="23.1" customHeight="1">
-      <c r="B23" s="300">
+      <c r="B23" s="286">
         <f>G8*90%</f>
         <v>45</v>
       </c>
-      <c r="C23" s="301"/>
-      <c r="D23" s="302"/>
-      <c r="E23" s="303">
+      <c r="C23" s="287"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="277">
         <v>20</v>
       </c>
-      <c r="F23" s="304"/>
-      <c r="G23" s="305"/>
-      <c r="H23" s="303">
+      <c r="F23" s="278"/>
+      <c r="G23" s="279"/>
+      <c r="H23" s="277">
         <v>20</v>
       </c>
-      <c r="I23" s="304"/>
-      <c r="J23" s="305"/>
-      <c r="K23" s="303">
+      <c r="I23" s="278"/>
+      <c r="J23" s="279"/>
+      <c r="K23" s="277">
         <v>20</v>
       </c>
-      <c r="L23" s="304"/>
-      <c r="M23" s="305"/>
-      <c r="N23" s="303">
+      <c r="L23" s="278"/>
+      <c r="M23" s="279"/>
+      <c r="N23" s="277">
         <v>20</v>
       </c>
-      <c r="O23" s="304"/>
-      <c r="P23" s="305"/>
-      <c r="Q23" s="300">
+      <c r="O23" s="278"/>
+      <c r="P23" s="279"/>
+      <c r="Q23" s="286">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="R23" s="301"/>
-      <c r="S23" s="302"/>
-      <c r="T23" s="334">
+      <c r="R23" s="287"/>
+      <c r="S23" s="288"/>
+      <c r="T23" s="320">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U23" s="335"/>
-      <c r="V23" s="335"/>
-      <c r="W23" s="336"/>
-      <c r="X23" s="306">
+      <c r="U23" s="321"/>
+      <c r="V23" s="321"/>
+      <c r="W23" s="322"/>
+      <c r="X23" s="289">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="Y23" s="307"/>
-      <c r="Z23" s="308"/>
+      <c r="Y23" s="290"/>
+      <c r="Z23" s="291"/>
       <c r="AA23"/>
     </row>
     <row r="24" spans="1:29" ht="23.1" customHeight="1">
-      <c r="B24" s="343">
+      <c r="B24" s="283">
         <f>G8*100%</f>
         <v>50</v>
       </c>
-      <c r="C24" s="344"/>
-      <c r="D24" s="345"/>
-      <c r="E24" s="346">
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="280">
         <v>25</v>
       </c>
-      <c r="F24" s="347"/>
-      <c r="G24" s="348"/>
-      <c r="H24" s="346">
+      <c r="F24" s="281"/>
+      <c r="G24" s="282"/>
+      <c r="H24" s="280">
         <v>25</v>
       </c>
-      <c r="I24" s="347"/>
-      <c r="J24" s="348"/>
-      <c r="K24" s="346">
+      <c r="I24" s="281"/>
+      <c r="J24" s="282"/>
+      <c r="K24" s="280">
         <v>25</v>
       </c>
-      <c r="L24" s="347"/>
-      <c r="M24" s="348"/>
-      <c r="N24" s="346">
+      <c r="L24" s="281"/>
+      <c r="M24" s="282"/>
+      <c r="N24" s="280">
         <v>25</v>
       </c>
-      <c r="O24" s="347"/>
-      <c r="P24" s="348"/>
-      <c r="Q24" s="343">
+      <c r="O24" s="281"/>
+      <c r="P24" s="282"/>
+      <c r="Q24" s="283">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="R24" s="344"/>
-      <c r="S24" s="345"/>
-      <c r="T24" s="337">
+      <c r="R24" s="284"/>
+      <c r="S24" s="285"/>
+      <c r="T24" s="320">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U24" s="338"/>
-      <c r="V24" s="338"/>
-      <c r="W24" s="339"/>
-      <c r="X24" s="340">
+      <c r="U24" s="321"/>
+      <c r="V24" s="321"/>
+      <c r="W24" s="322"/>
+      <c r="X24" s="292">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="Y24" s="341"/>
-      <c r="Z24" s="342"/>
+      <c r="Y24" s="293"/>
+      <c r="Z24" s="294"/>
       <c r="AA24"/>
     </row>
     <row r="25" spans="1:29" ht="23.1" customHeight="1">
@@ -32577,62 +32559,38 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="O7:V7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="O9:AC9"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="F5:AC5"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="T6:AC6"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
     <mergeCell ref="X16:Z16"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="K16:M16"/>
@@ -32657,38 +32615,62 @@
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="O7:V7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="O9:AC9"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="F5:AC5"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="T6:AC6"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="N20:P20"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -33663,14 +33645,14 @@
       <c r="I14" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="356">
+      <c r="J14" s="346">
         <f>'Data Record'!D7</f>
         <v>123</v>
       </c>
-      <c r="K14" s="356"/>
-      <c r="L14" s="356"/>
-      <c r="M14" s="356"/>
-      <c r="N14" s="356"/>
+      <c r="K14" s="346"/>
+      <c r="L14" s="346"/>
+      <c r="M14" s="346"/>
+      <c r="N14" s="346"/>
       <c r="P14" s="84"/>
       <c r="Q14" s="108"/>
       <c r="R14" s="108"/>
@@ -33695,15 +33677,15 @@
       <c r="I15" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="358">
+      <c r="J15" s="348">
         <f>'Data Record'!O7</f>
         <v>456</v>
       </c>
-      <c r="K15" s="358"/>
-      <c r="L15" s="358"/>
-      <c r="M15" s="358"/>
-      <c r="N15" s="358"/>
-      <c r="O15" s="358"/>
+      <c r="K15" s="348"/>
+      <c r="L15" s="348"/>
+      <c r="M15" s="348"/>
+      <c r="N15" s="348"/>
+      <c r="O15" s="348"/>
       <c r="P15" s="84"/>
       <c r="Q15" s="84"/>
       <c r="R15" s="108"/>
@@ -33727,14 +33709,14 @@
       <c r="I16" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="357">
+      <c r="J16" s="347">
         <f>'Data Record'!Y7</f>
         <v>789</v>
       </c>
-      <c r="K16" s="357"/>
-      <c r="L16" s="357"/>
-      <c r="M16" s="357"/>
-      <c r="N16" s="357"/>
+      <c r="K16" s="347"/>
+      <c r="L16" s="347"/>
+      <c r="M16" s="347"/>
+      <c r="N16" s="347"/>
       <c r="P16" s="84"/>
       <c r="Q16" s="84"/>
       <c r="R16" s="108"/>
@@ -34298,17 +34280,17 @@
         <v>3</v>
       </c>
       <c r="R36" s="218"/>
-      <c r="S36" s="353" t="str">
+      <c r="S36" s="343" t="str">
         <f>IF(Q36=1,"( Mr.Sombut Srikampa )",IF(Q36=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="T36" s="353"/>
-      <c r="U36" s="353"/>
-      <c r="V36" s="353"/>
-      <c r="W36" s="353"/>
-      <c r="X36" s="353"/>
-      <c r="Y36" s="353"/>
-      <c r="Z36" s="353"/>
+      <c r="T36" s="343"/>
+      <c r="U36" s="343"/>
+      <c r="V36" s="343"/>
+      <c r="W36" s="343"/>
+      <c r="X36" s="343"/>
+      <c r="Y36" s="343"/>
+      <c r="Z36" s="343"/>
       <c r="AA36" s="130"/>
       <c r="AE36" s="236"/>
       <c r="AF36" s="183"/>
@@ -34336,16 +34318,16 @@
       <c r="P37" s="218"/>
       <c r="Q37" s="218"/>
       <c r="R37" s="218"/>
-      <c r="S37" s="354" t="s">
+      <c r="S37" s="344" t="s">
         <v>52</v>
       </c>
-      <c r="T37" s="354"/>
-      <c r="U37" s="354"/>
-      <c r="V37" s="354"/>
-      <c r="W37" s="354"/>
-      <c r="X37" s="354"/>
-      <c r="Y37" s="354"/>
-      <c r="Z37" s="354"/>
+      <c r="T37" s="344"/>
+      <c r="U37" s="344"/>
+      <c r="V37" s="344"/>
+      <c r="W37" s="344"/>
+      <c r="X37" s="344"/>
+      <c r="Y37" s="344"/>
+      <c r="Z37" s="344"/>
       <c r="AA37" s="130"/>
       <c r="AB37" s="80"/>
       <c r="AC37" s="244"/>
@@ -34380,28 +34362,28 @@
       <c r="AA38" s="130"/>
     </row>
     <row r="39" spans="1:36" s="75" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="355"/>
-      <c r="B39" s="355"/>
-      <c r="C39" s="355"/>
-      <c r="D39" s="355"/>
-      <c r="E39" s="355"/>
-      <c r="F39" s="355"/>
-      <c r="G39" s="355"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="355"/>
-      <c r="J39" s="355"/>
-      <c r="K39" s="355"/>
-      <c r="L39" s="355"/>
-      <c r="M39" s="355"/>
-      <c r="N39" s="355"/>
-      <c r="O39" s="355"/>
-      <c r="P39" s="355"/>
-      <c r="Q39" s="355"/>
-      <c r="R39" s="355"/>
-      <c r="S39" s="355"/>
-      <c r="T39" s="355"/>
-      <c r="U39" s="355"/>
-      <c r="V39" s="355"/>
+      <c r="A39" s="345"/>
+      <c r="B39" s="345"/>
+      <c r="C39" s="345"/>
+      <c r="D39" s="345"/>
+      <c r="E39" s="345"/>
+      <c r="F39" s="345"/>
+      <c r="G39" s="345"/>
+      <c r="H39" s="345"/>
+      <c r="I39" s="345"/>
+      <c r="J39" s="345"/>
+      <c r="K39" s="345"/>
+      <c r="L39" s="345"/>
+      <c r="M39" s="345"/>
+      <c r="N39" s="345"/>
+      <c r="O39" s="345"/>
+      <c r="P39" s="345"/>
+      <c r="Q39" s="345"/>
+      <c r="R39" s="345"/>
+      <c r="S39" s="345"/>
+      <c r="T39" s="345"/>
+      <c r="U39" s="345"/>
+      <c r="V39" s="345"/>
       <c r="W39" s="137"/>
     </row>
     <row r="40" spans="1:36" ht="18.75" customHeight="1">
@@ -34457,17 +34439,17 @@
     <row r="58" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="S36:Z36"/>
     <mergeCell ref="S37:Z37"/>
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="J15:O15"/>
-    <mergeCell ref="A3:X3"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="H35:J35"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -34866,30 +34848,30 @@
       <c r="V2" s="73"/>
     </row>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="364" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="359"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359"/>
-      <c r="H3" s="359"/>
-      <c r="I3" s="359"/>
-      <c r="J3" s="359"/>
-      <c r="K3" s="359"/>
-      <c r="L3" s="359"/>
-      <c r="M3" s="359"/>
-      <c r="N3" s="359"/>
-      <c r="O3" s="359"/>
-      <c r="P3" s="359"/>
-      <c r="Q3" s="359"/>
-      <c r="R3" s="359"/>
-      <c r="S3" s="359"/>
-      <c r="T3" s="359"/>
-      <c r="U3" s="359"/>
-      <c r="V3" s="359"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
+      <c r="K3" s="364"/>
+      <c r="L3" s="364"/>
+      <c r="M3" s="364"/>
+      <c r="N3" s="364"/>
+      <c r="O3" s="364"/>
+      <c r="P3" s="364"/>
+      <c r="Q3" s="364"/>
+      <c r="R3" s="364"/>
+      <c r="S3" s="364"/>
+      <c r="T3" s="364"/>
+      <c r="U3" s="364"/>
+      <c r="V3" s="364"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
       <c r="A4" s="74"/>
@@ -34941,11 +34923,11 @@
       <c r="P5" s="84"/>
       <c r="Q5" s="84"/>
       <c r="R5" s="73"/>
-      <c r="S5" s="360" t="s">
+      <c r="S5" s="365" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="360"/>
-      <c r="U5" s="360"/>
+      <c r="T5" s="365"/>
+      <c r="U5" s="365"/>
       <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1">
@@ -35003,18 +34985,18 @@
       <c r="D8" s="89"/>
       <c r="E8" s="79"/>
       <c r="F8" s="79"/>
-      <c r="G8" s="361" t="s">
+      <c r="G8" s="366" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="361"/>
-      <c r="I8" s="361"/>
-      <c r="J8" s="361"/>
-      <c r="K8" s="361"/>
-      <c r="L8" s="361"/>
-      <c r="M8" s="361"/>
-      <c r="N8" s="361"/>
-      <c r="O8" s="361"/>
-      <c r="P8" s="361"/>
+      <c r="H8" s="366"/>
+      <c r="I8" s="366"/>
+      <c r="J8" s="366"/>
+      <c r="K8" s="366"/>
+      <c r="L8" s="366"/>
+      <c r="M8" s="366"/>
+      <c r="N8" s="366"/>
+      <c r="O8" s="366"/>
+      <c r="P8" s="366"/>
       <c r="Q8" s="92"/>
       <c r="R8" s="92"/>
       <c r="S8" s="92"/>
@@ -35029,16 +35011,16 @@
       <c r="D9" s="89"/>
       <c r="E9" s="79"/>
       <c r="F9" s="79"/>
-      <c r="G9" s="361"/>
-      <c r="H9" s="361"/>
-      <c r="I9" s="361"/>
-      <c r="J9" s="361"/>
-      <c r="K9" s="361"/>
-      <c r="L9" s="361"/>
-      <c r="M9" s="361"/>
-      <c r="N9" s="361"/>
-      <c r="O9" s="361"/>
-      <c r="P9" s="361"/>
+      <c r="G9" s="366"/>
+      <c r="H9" s="366"/>
+      <c r="I9" s="366"/>
+      <c r="J9" s="366"/>
+      <c r="K9" s="366"/>
+      <c r="L9" s="366"/>
+      <c r="M9" s="366"/>
+      <c r="N9" s="366"/>
+      <c r="O9" s="366"/>
+      <c r="P9" s="366"/>
       <c r="Q9" s="92"/>
       <c r="R9" s="92"/>
       <c r="S9" s="92"/>
@@ -35072,70 +35054,70 @@
     </row>
     <row r="11" spans="1:22" ht="23.1" customHeight="1">
       <c r="A11" s="76"/>
-      <c r="B11" s="362" t="s">
+      <c r="B11" s="367" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="363"/>
-      <c r="D11" s="363"/>
-      <c r="E11" s="363"/>
-      <c r="F11" s="363"/>
-      <c r="G11" s="364"/>
-      <c r="H11" s="362" t="s">
+      <c r="C11" s="368"/>
+      <c r="D11" s="368"/>
+      <c r="E11" s="368"/>
+      <c r="F11" s="368"/>
+      <c r="G11" s="369"/>
+      <c r="H11" s="367" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="363"/>
-      <c r="J11" s="364"/>
-      <c r="K11" s="362" t="s">
+      <c r="I11" s="368"/>
+      <c r="J11" s="369"/>
+      <c r="K11" s="367" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="363"/>
-      <c r="M11" s="364"/>
-      <c r="N11" s="362" t="s">
+      <c r="L11" s="368"/>
+      <c r="M11" s="369"/>
+      <c r="N11" s="367" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="363"/>
-      <c r="P11" s="363"/>
-      <c r="Q11" s="364"/>
-      <c r="R11" s="363" t="s">
+      <c r="O11" s="368"/>
+      <c r="P11" s="368"/>
+      <c r="Q11" s="369"/>
+      <c r="R11" s="368" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="363"/>
-      <c r="T11" s="363"/>
-      <c r="U11" s="364"/>
+      <c r="S11" s="368"/>
+      <c r="T11" s="368"/>
+      <c r="U11" s="369"/>
       <c r="V11" s="75"/>
     </row>
     <row r="12" spans="1:22" ht="23.1" customHeight="1">
       <c r="A12" s="76"/>
-      <c r="B12" s="365" t="s">
+      <c r="B12" s="353" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="366"/>
-      <c r="D12" s="366"/>
-      <c r="E12" s="366"/>
-      <c r="F12" s="366"/>
-      <c r="G12" s="366"/>
-      <c r="H12" s="367" t="s">
+      <c r="C12" s="354"/>
+      <c r="D12" s="354"/>
+      <c r="E12" s="354"/>
+      <c r="F12" s="354"/>
+      <c r="G12" s="354"/>
+      <c r="H12" s="355" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="368"/>
-      <c r="J12" s="369"/>
-      <c r="K12" s="367">
+      <c r="I12" s="356"/>
+      <c r="J12" s="357"/>
+      <c r="K12" s="355">
         <v>60711</v>
       </c>
-      <c r="L12" s="368"/>
-      <c r="M12" s="369"/>
-      <c r="N12" s="370" t="s">
+      <c r="L12" s="356"/>
+      <c r="M12" s="357"/>
+      <c r="N12" s="358" t="s">
         <v>112</v>
       </c>
-      <c r="O12" s="371"/>
-      <c r="P12" s="371"/>
-      <c r="Q12" s="372"/>
-      <c r="R12" s="373">
+      <c r="O12" s="359"/>
+      <c r="P12" s="359"/>
+      <c r="Q12" s="360"/>
+      <c r="R12" s="361">
         <v>42336</v>
       </c>
-      <c r="S12" s="374"/>
-      <c r="T12" s="374"/>
-      <c r="U12" s="375"/>
+      <c r="S12" s="362"/>
+      <c r="T12" s="362"/>
+      <c r="U12" s="363"/>
       <c r="V12" s="110"/>
     </row>
     <row r="13" spans="1:22" ht="17.25" customHeight="1">
@@ -36039,11 +36021,6 @@
     <row r="215" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:U12"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="G8:P9"/>
@@ -36052,6 +36029,11 @@
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="R11:U11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36237,10 +36219,10 @@
       <c r="L7" s="251"/>
       <c r="M7" s="251"/>
       <c r="N7" s="251"/>
-      <c r="O7" s="385" t="s">
+      <c r="O7" s="379" t="s">
         <v>120</v>
       </c>
-      <c r="P7" s="385"/>
+      <c r="P7" s="379"/>
       <c r="Q7" s="273" t="s">
         <v>10</v>
       </c>
@@ -36254,27 +36236,27 @@
       <c r="B8" s="140"/>
       <c r="C8" s="140"/>
       <c r="D8" s="140"/>
-      <c r="E8" s="392" t="s">
+      <c r="E8" s="386" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="393"/>
-      <c r="G8" s="394"/>
-      <c r="H8" s="392" t="s">
+      <c r="F8" s="387"/>
+      <c r="G8" s="388"/>
+      <c r="H8" s="386" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="393"/>
-      <c r="J8" s="394"/>
-      <c r="K8" s="386" t="s">
+      <c r="I8" s="387"/>
+      <c r="J8" s="388"/>
+      <c r="K8" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="387"/>
-      <c r="M8" s="388"/>
-      <c r="N8" s="392" t="s">
+      <c r="L8" s="381"/>
+      <c r="M8" s="382"/>
+      <c r="N8" s="386" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="393"/>
-      <c r="P8" s="393"/>
-      <c r="Q8" s="394"/>
+      <c r="O8" s="387"/>
+      <c r="P8" s="387"/>
+      <c r="Q8" s="388"/>
       <c r="R8" s="140"/>
       <c r="S8" s="140"/>
       <c r="T8" s="256"/>
@@ -36285,19 +36267,19 @@
       <c r="B9" s="140"/>
       <c r="C9" s="140"/>
       <c r="D9" s="140"/>
-      <c r="E9" s="395"/>
-      <c r="F9" s="396"/>
-      <c r="G9" s="397"/>
-      <c r="H9" s="395"/>
-      <c r="I9" s="396"/>
-      <c r="J9" s="397"/>
-      <c r="K9" s="389"/>
-      <c r="L9" s="390"/>
-      <c r="M9" s="391"/>
-      <c r="N9" s="395"/>
-      <c r="O9" s="396"/>
-      <c r="P9" s="396"/>
-      <c r="Q9" s="397"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="390"/>
+      <c r="G9" s="391"/>
+      <c r="H9" s="389"/>
+      <c r="I9" s="390"/>
+      <c r="J9" s="391"/>
+      <c r="K9" s="383"/>
+      <c r="L9" s="384"/>
+      <c r="M9" s="385"/>
+      <c r="N9" s="389"/>
+      <c r="O9" s="390"/>
+      <c r="P9" s="390"/>
+      <c r="Q9" s="391"/>
       <c r="R9" s="140"/>
       <c r="S9" s="140"/>
       <c r="T9" s="256"/>
@@ -36343,31 +36325,31 @@
       <c r="B11" s="140"/>
       <c r="C11" s="140"/>
       <c r="D11" s="140"/>
-      <c r="E11" s="379">
+      <c r="E11" s="372">
         <f>'Data Record'!B16</f>
         <v>10</v>
       </c>
-      <c r="F11" s="379"/>
-      <c r="G11" s="379"/>
-      <c r="H11" s="380">
+      <c r="F11" s="372"/>
+      <c r="G11" s="372"/>
+      <c r="H11" s="373">
         <f>'Data Record'!Q16</f>
         <v>1.5</v>
       </c>
-      <c r="I11" s="380"/>
-      <c r="J11" s="380"/>
-      <c r="K11" s="380">
+      <c r="I11" s="373"/>
+      <c r="J11" s="373"/>
+      <c r="K11" s="373">
         <f>'Data Record'!X16</f>
         <v>-8.5</v>
       </c>
-      <c r="L11" s="380"/>
-      <c r="M11" s="380"/>
-      <c r="N11" s="380">
+      <c r="L11" s="373"/>
+      <c r="M11" s="373"/>
+      <c r="N11" s="373">
         <f>'Uncertainty Budget'!O8</f>
         <v>2.8867513496258503</v>
       </c>
-      <c r="O11" s="380"/>
-      <c r="P11" s="380"/>
-      <c r="Q11" s="380"/>
+      <c r="O11" s="373"/>
+      <c r="P11" s="373"/>
+      <c r="Q11" s="373"/>
       <c r="R11" s="140"/>
       <c r="S11" s="140"/>
       <c r="T11" s="256"/>
@@ -36378,31 +36360,31 @@
       <c r="B12" s="140"/>
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
-      <c r="E12" s="379">
+      <c r="E12" s="372">
         <f>'Data Record'!B17</f>
         <v>15</v>
       </c>
-      <c r="F12" s="379"/>
-      <c r="G12" s="379"/>
-      <c r="H12" s="380">
+      <c r="F12" s="372"/>
+      <c r="G12" s="372"/>
+      <c r="H12" s="373">
         <f>'Data Record'!Q17</f>
         <v>2</v>
       </c>
-      <c r="I12" s="380"/>
-      <c r="J12" s="380"/>
-      <c r="K12" s="380">
+      <c r="I12" s="373"/>
+      <c r="J12" s="373"/>
+      <c r="K12" s="373">
         <f>'Data Record'!X17</f>
         <v>-13</v>
       </c>
-      <c r="L12" s="380"/>
-      <c r="M12" s="380"/>
-      <c r="N12" s="380">
+      <c r="L12" s="373"/>
+      <c r="M12" s="373"/>
+      <c r="N12" s="373">
         <f>'Uncertainty Budget'!O9</f>
         <v>2.8867513536687457</v>
       </c>
-      <c r="O12" s="380"/>
-      <c r="P12" s="380"/>
-      <c r="Q12" s="380"/>
+      <c r="O12" s="373"/>
+      <c r="P12" s="373"/>
+      <c r="Q12" s="373"/>
       <c r="R12" s="140"/>
       <c r="S12" s="140"/>
       <c r="T12" s="256"/>
@@ -36413,31 +36395,31 @@
       <c r="B13" s="140"/>
       <c r="C13" s="140"/>
       <c r="D13" s="140"/>
-      <c r="E13" s="379">
+      <c r="E13" s="372">
         <f>'Data Record'!B18</f>
         <v>20</v>
       </c>
-      <c r="F13" s="379"/>
-      <c r="G13" s="379"/>
-      <c r="H13" s="380">
+      <c r="F13" s="372"/>
+      <c r="G13" s="372"/>
+      <c r="H13" s="373">
         <f>'Data Record'!Q18</f>
         <v>3</v>
       </c>
-      <c r="I13" s="380"/>
-      <c r="J13" s="380"/>
-      <c r="K13" s="380">
+      <c r="I13" s="373"/>
+      <c r="J13" s="373"/>
+      <c r="K13" s="373">
         <f>'Data Record'!X18</f>
         <v>-17</v>
       </c>
-      <c r="L13" s="380"/>
-      <c r="M13" s="380"/>
-      <c r="N13" s="380">
+      <c r="L13" s="373"/>
+      <c r="M13" s="373"/>
+      <c r="N13" s="373">
         <f>'Uncertainty Budget'!O10</f>
         <v>2.8867513590135658</v>
       </c>
-      <c r="O13" s="380"/>
-      <c r="P13" s="380"/>
-      <c r="Q13" s="380"/>
+      <c r="O13" s="373"/>
+      <c r="P13" s="373"/>
+      <c r="Q13" s="373"/>
       <c r="R13" s="140"/>
       <c r="S13" s="140"/>
       <c r="T13" s="256"/>
@@ -36448,31 +36430,31 @@
       <c r="B14" s="140"/>
       <c r="C14" s="140"/>
       <c r="D14" s="140"/>
-      <c r="E14" s="379">
+      <c r="E14" s="372">
         <f>'Data Record'!B19</f>
         <v>25</v>
       </c>
-      <c r="F14" s="379"/>
-      <c r="G14" s="379"/>
-      <c r="H14" s="380">
+      <c r="F14" s="372"/>
+      <c r="G14" s="372"/>
+      <c r="H14" s="373">
         <f>'Data Record'!Q19</f>
         <v>4</v>
       </c>
-      <c r="I14" s="380"/>
-      <c r="J14" s="380"/>
-      <c r="K14" s="380">
+      <c r="I14" s="373"/>
+      <c r="J14" s="373"/>
+      <c r="K14" s="373">
         <f>'Data Record'!X19</f>
         <v>-21</v>
       </c>
-      <c r="L14" s="380"/>
-      <c r="M14" s="380"/>
-      <c r="N14" s="380">
+      <c r="L14" s="373"/>
+      <c r="M14" s="373"/>
+      <c r="N14" s="373">
         <f>'Uncertainty Budget'!O11</f>
         <v>2.8867513658854773</v>
       </c>
-      <c r="O14" s="380"/>
-      <c r="P14" s="380"/>
-      <c r="Q14" s="380"/>
+      <c r="O14" s="373"/>
+      <c r="P14" s="373"/>
+      <c r="Q14" s="373"/>
       <c r="R14" s="140"/>
       <c r="S14" s="140"/>
       <c r="T14" s="256"/>
@@ -36483,31 +36465,31 @@
       <c r="B15" s="140"/>
       <c r="C15" s="140"/>
       <c r="D15" s="140"/>
-      <c r="E15" s="379">
+      <c r="E15" s="372">
         <f>'Data Record'!B20</f>
         <v>30</v>
       </c>
-      <c r="F15" s="379"/>
-      <c r="G15" s="379"/>
-      <c r="H15" s="380">
+      <c r="F15" s="372"/>
+      <c r="G15" s="372"/>
+      <c r="H15" s="373">
         <f>'Data Record'!Q20</f>
         <v>5</v>
       </c>
-      <c r="I15" s="380"/>
-      <c r="J15" s="380"/>
-      <c r="K15" s="380">
+      <c r="I15" s="373"/>
+      <c r="J15" s="373"/>
+      <c r="K15" s="373">
         <f>'Data Record'!X20</f>
         <v>-25</v>
       </c>
-      <c r="L15" s="380"/>
-      <c r="M15" s="380"/>
-      <c r="N15" s="380">
+      <c r="L15" s="373"/>
+      <c r="M15" s="373"/>
+      <c r="N15" s="373">
         <f>'Uncertainty Budget'!O12</f>
         <v>2.8867513755315568</v>
       </c>
-      <c r="O15" s="380"/>
-      <c r="P15" s="380"/>
-      <c r="Q15" s="380"/>
+      <c r="O15" s="373"/>
+      <c r="P15" s="373"/>
+      <c r="Q15" s="373"/>
       <c r="R15" s="140"/>
       <c r="S15" s="140"/>
       <c r="T15" s="256"/>
@@ -36518,31 +36500,31 @@
       <c r="B16" s="140"/>
       <c r="C16" s="140"/>
       <c r="D16" s="140"/>
-      <c r="E16" s="379">
+      <c r="E16" s="372">
         <f>'Data Record'!B21</f>
         <v>35</v>
       </c>
-      <c r="F16" s="379"/>
-      <c r="G16" s="379"/>
-      <c r="H16" s="380">
+      <c r="F16" s="372"/>
+      <c r="G16" s="372"/>
+      <c r="H16" s="373">
         <f>'Data Record'!Q21</f>
         <v>35</v>
       </c>
-      <c r="I16" s="380"/>
-      <c r="J16" s="380"/>
-      <c r="K16" s="380">
+      <c r="I16" s="373"/>
+      <c r="J16" s="373"/>
+      <c r="K16" s="373">
         <f>'Data Record'!X21</f>
         <v>0</v>
       </c>
-      <c r="L16" s="380"/>
-      <c r="M16" s="380"/>
-      <c r="N16" s="380">
+      <c r="L16" s="373"/>
+      <c r="M16" s="373"/>
+      <c r="N16" s="373">
         <f>'Uncertainty Budget'!O13</f>
         <v>2.8867513862890357</v>
       </c>
-      <c r="O16" s="380"/>
-      <c r="P16" s="380"/>
-      <c r="Q16" s="380"/>
+      <c r="O16" s="373"/>
+      <c r="P16" s="373"/>
+      <c r="Q16" s="373"/>
       <c r="R16" s="140"/>
       <c r="S16" s="140"/>
       <c r="T16" s="256"/>
@@ -36553,31 +36535,31 @@
       <c r="B17" s="140"/>
       <c r="C17" s="140"/>
       <c r="D17" s="140"/>
-      <c r="E17" s="379">
+      <c r="E17" s="372">
         <f>'Data Record'!B22</f>
         <v>40</v>
       </c>
-      <c r="F17" s="379"/>
-      <c r="G17" s="379"/>
-      <c r="H17" s="380">
+      <c r="F17" s="372"/>
+      <c r="G17" s="372"/>
+      <c r="H17" s="373">
         <f>'Data Record'!Q22</f>
         <v>15</v>
       </c>
-      <c r="I17" s="380"/>
-      <c r="J17" s="380"/>
-      <c r="K17" s="380">
+      <c r="I17" s="373"/>
+      <c r="J17" s="373"/>
+      <c r="K17" s="373">
         <f>'Data Record'!X22</f>
         <v>-25</v>
       </c>
-      <c r="L17" s="380"/>
-      <c r="M17" s="380"/>
-      <c r="N17" s="380">
+      <c r="L17" s="373"/>
+      <c r="M17" s="373"/>
+      <c r="N17" s="373">
         <f>'Uncertainty Budget'!O14</f>
         <v>2.8867513998206826</v>
       </c>
-      <c r="O17" s="380"/>
-      <c r="P17" s="380"/>
-      <c r="Q17" s="380"/>
+      <c r="O17" s="373"/>
+      <c r="P17" s="373"/>
+      <c r="Q17" s="373"/>
       <c r="R17" s="140"/>
       <c r="S17" s="140"/>
       <c r="T17" s="256"/>
@@ -36588,31 +36570,31 @@
       <c r="B18" s="140"/>
       <c r="C18" s="140"/>
       <c r="D18" s="140"/>
-      <c r="E18" s="379">
+      <c r="E18" s="372">
         <f>'Data Record'!B23</f>
         <v>45</v>
       </c>
-      <c r="F18" s="379"/>
-      <c r="G18" s="379"/>
-      <c r="H18" s="380">
+      <c r="F18" s="372"/>
+      <c r="G18" s="372"/>
+      <c r="H18" s="373">
         <f>'Data Record'!Q23</f>
         <v>20</v>
       </c>
-      <c r="I18" s="380"/>
-      <c r="J18" s="380"/>
-      <c r="K18" s="380">
+      <c r="I18" s="373"/>
+      <c r="J18" s="373"/>
+      <c r="K18" s="373">
         <f>'Data Record'!X23</f>
         <v>-25</v>
       </c>
-      <c r="L18" s="380"/>
-      <c r="M18" s="380"/>
-      <c r="N18" s="380">
+      <c r="L18" s="373"/>
+      <c r="M18" s="373"/>
+      <c r="N18" s="373">
         <f>'Uncertainty Budget'!O15</f>
         <v>2.8867514111901524</v>
       </c>
-      <c r="O18" s="380"/>
-      <c r="P18" s="380"/>
-      <c r="Q18" s="380"/>
+      <c r="O18" s="373"/>
+      <c r="P18" s="373"/>
+      <c r="Q18" s="373"/>
       <c r="R18" s="140"/>
       <c r="S18" s="140"/>
       <c r="T18" s="256"/>
@@ -36623,31 +36605,31 @@
       <c r="B19" s="140"/>
       <c r="C19" s="140"/>
       <c r="D19" s="140"/>
-      <c r="E19" s="383">
+      <c r="E19" s="374">
         <f>'Data Record'!B24</f>
         <v>50</v>
       </c>
-      <c r="F19" s="383"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="384">
+      <c r="F19" s="374"/>
+      <c r="G19" s="374"/>
+      <c r="H19" s="375">
         <f>'Data Record'!Q24</f>
         <v>25</v>
       </c>
-      <c r="I19" s="384"/>
-      <c r="J19" s="384"/>
-      <c r="K19" s="384">
+      <c r="I19" s="375"/>
+      <c r="J19" s="375"/>
+      <c r="K19" s="375">
         <f>'Data Record'!X24</f>
         <v>-25</v>
       </c>
-      <c r="L19" s="384"/>
-      <c r="M19" s="384"/>
-      <c r="N19" s="384">
+      <c r="L19" s="375"/>
+      <c r="M19" s="375"/>
+      <c r="N19" s="375">
         <f>'Uncertainty Budget'!O16</f>
         <v>2.8867514237056624</v>
       </c>
-      <c r="O19" s="384"/>
-      <c r="P19" s="384"/>
-      <c r="Q19" s="384"/>
+      <c r="O19" s="375"/>
+      <c r="P19" s="375"/>
+      <c r="Q19" s="375"/>
       <c r="R19" s="140"/>
       <c r="S19" s="140"/>
       <c r="T19" s="256"/>
@@ -36704,87 +36686,87 @@
       <c r="X21" s="140"/>
     </row>
     <row r="22" spans="1:24" ht="21" customHeight="1">
-      <c r="A22" s="381" t="s">
+      <c r="A22" s="370" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="381"/>
-      <c r="C22" s="381"/>
-      <c r="D22" s="381"/>
-      <c r="E22" s="381"/>
-      <c r="F22" s="381"/>
-      <c r="G22" s="381"/>
-      <c r="H22" s="381"/>
-      <c r="I22" s="381"/>
-      <c r="J22" s="381"/>
-      <c r="K22" s="381"/>
-      <c r="L22" s="381"/>
-      <c r="M22" s="381"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="381"/>
-      <c r="P22" s="381"/>
-      <c r="Q22" s="381"/>
-      <c r="R22" s="381"/>
-      <c r="S22" s="381"/>
-      <c r="T22" s="381"/>
-      <c r="U22" s="381"/>
-      <c r="V22" s="381"/>
+      <c r="B22" s="370"/>
+      <c r="C22" s="370"/>
+      <c r="D22" s="370"/>
+      <c r="E22" s="370"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="370"/>
+      <c r="H22" s="370"/>
+      <c r="I22" s="370"/>
+      <c r="J22" s="370"/>
+      <c r="K22" s="370"/>
+      <c r="L22" s="370"/>
+      <c r="M22" s="370"/>
+      <c r="N22" s="370"/>
+      <c r="O22" s="370"/>
+      <c r="P22" s="370"/>
+      <c r="Q22" s="370"/>
+      <c r="R22" s="370"/>
+      <c r="S22" s="370"/>
+      <c r="T22" s="370"/>
+      <c r="U22" s="370"/>
+      <c r="V22" s="370"/>
       <c r="W22" s="140"/>
       <c r="X22" s="140"/>
     </row>
     <row r="23" spans="1:24" ht="21" customHeight="1">
-      <c r="A23" s="381" t="s">
+      <c r="A23" s="370" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="381"/>
-      <c r="C23" s="381"/>
-      <c r="D23" s="381"/>
-      <c r="E23" s="381"/>
-      <c r="F23" s="381"/>
-      <c r="G23" s="381"/>
-      <c r="H23" s="381"/>
-      <c r="I23" s="381"/>
-      <c r="J23" s="381"/>
-      <c r="K23" s="381"/>
-      <c r="L23" s="381"/>
-      <c r="M23" s="381"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="381"/>
-      <c r="P23" s="381"/>
-      <c r="Q23" s="381"/>
-      <c r="R23" s="381"/>
-      <c r="S23" s="381"/>
-      <c r="T23" s="381"/>
-      <c r="U23" s="381"/>
-      <c r="V23" s="381"/>
-      <c r="W23" s="381"/>
+      <c r="B23" s="370"/>
+      <c r="C23" s="370"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="370"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="370"/>
+      <c r="H23" s="370"/>
+      <c r="I23" s="370"/>
+      <c r="J23" s="370"/>
+      <c r="K23" s="370"/>
+      <c r="L23" s="370"/>
+      <c r="M23" s="370"/>
+      <c r="N23" s="370"/>
+      <c r="O23" s="370"/>
+      <c r="P23" s="370"/>
+      <c r="Q23" s="370"/>
+      <c r="R23" s="370"/>
+      <c r="S23" s="370"/>
+      <c r="T23" s="370"/>
+      <c r="U23" s="370"/>
+      <c r="V23" s="370"/>
+      <c r="W23" s="370"/>
       <c r="X23" s="140"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1">
-      <c r="A24" s="382" t="s">
+      <c r="A24" s="371" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="382"/>
-      <c r="C24" s="382"/>
-      <c r="D24" s="382"/>
-      <c r="E24" s="382"/>
-      <c r="F24" s="382"/>
-      <c r="G24" s="382"/>
-      <c r="H24" s="382"/>
-      <c r="I24" s="382"/>
-      <c r="J24" s="382"/>
-      <c r="K24" s="382"/>
-      <c r="L24" s="382"/>
-      <c r="M24" s="382"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="382"/>
-      <c r="P24" s="382"/>
-      <c r="Q24" s="382"/>
-      <c r="R24" s="382"/>
-      <c r="S24" s="382"/>
-      <c r="T24" s="382"/>
-      <c r="U24" s="382"/>
-      <c r="V24" s="382"/>
-      <c r="W24" s="382"/>
+      <c r="B24" s="371"/>
+      <c r="C24" s="371"/>
+      <c r="D24" s="371"/>
+      <c r="E24" s="371"/>
+      <c r="F24" s="371"/>
+      <c r="G24" s="371"/>
+      <c r="H24" s="371"/>
+      <c r="I24" s="371"/>
+      <c r="J24" s="371"/>
+      <c r="K24" s="371"/>
+      <c r="L24" s="371"/>
+      <c r="M24" s="371"/>
+      <c r="N24" s="371"/>
+      <c r="O24" s="371"/>
+      <c r="P24" s="371"/>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="371"/>
+      <c r="S24" s="371"/>
+      <c r="T24" s="371"/>
+      <c r="U24" s="371"/>
+      <c r="V24" s="371"/>
+      <c r="W24" s="371"/>
       <c r="X24" s="140"/>
     </row>
     <row r="25" spans="1:24" ht="17.100000000000001" customHeight="1">
@@ -37088,6 +37070,39 @@
     <row r="125" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K8:M9"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="N8:Q9"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="A22:V22"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:Q19"/>
     <mergeCell ref="A23:W23"/>
     <mergeCell ref="A24:W24"/>
     <mergeCell ref="E16:G16"/>
@@ -37104,39 +37119,6 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="A22:V22"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K8:M9"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="N8:Q9"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -37153,7 +37135,7 @@
   </sheetPr>
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7:N16"/>
     </sheetView>
   </sheetViews>
@@ -37612,29 +37594,29 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="33" customHeight="1">
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="392" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
-      <c r="M2" s="398"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="398"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
+      <c r="K2" s="392"/>
+      <c r="L2" s="392"/>
+      <c r="M2" s="392"/>
+      <c r="N2" s="392"/>
+      <c r="O2" s="392"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
-      <c r="B3" s="399"/>
-      <c r="C3" s="399"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
-      <c r="F3" s="399"/>
+      <c r="B3" s="393"/>
+      <c r="C3" s="393"/>
+      <c r="D3" s="393"/>
+      <c r="E3" s="393"/>
+      <c r="F3" s="393"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="O3" s="3"/>
@@ -37643,32 +37625,32 @@
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="400" t="s">
+      <c r="C4" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="401"/>
-      <c r="E4" s="400" t="s">
+      <c r="D4" s="395"/>
+      <c r="E4" s="394" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="401"/>
-      <c r="G4" s="402" t="s">
+      <c r="F4" s="395"/>
+      <c r="G4" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="403"/>
-      <c r="I4" s="400" t="s">
+      <c r="H4" s="397"/>
+      <c r="I4" s="394" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="401"/>
-      <c r="K4" s="404" t="s">
+      <c r="J4" s="395"/>
+      <c r="K4" s="398" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="404" t="s">
+      <c r="L4" s="398" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="404" t="s">
+      <c r="M4" s="398" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="404" t="s">
+      <c r="N4" s="398" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="258" t="s">
@@ -37679,26 +37661,26 @@
       <c r="B5" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="406" t="s">
+      <c r="C5" s="400" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="407"/>
-      <c r="E5" s="406" t="s">
+      <c r="D5" s="401"/>
+      <c r="E5" s="400" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="407"/>
-      <c r="G5" s="406" t="s">
+      <c r="F5" s="401"/>
+      <c r="G5" s="400" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="407"/>
-      <c r="I5" s="406" t="s">
+      <c r="H5" s="401"/>
+      <c r="I5" s="400" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="407"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="405"/>
-      <c r="M5" s="405"/>
-      <c r="N5" s="405"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="399"/>
+      <c r="L5" s="399"/>
+      <c r="M5" s="399"/>
+      <c r="N5" s="399"/>
       <c r="O5" s="260" t="s">
         <v>117</v>
       </c>
@@ -40245,137 +40227,137 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:29" ht="26.25">
-      <c r="A2" s="416" t="s">
+      <c r="A2" s="402" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="417"/>
-      <c r="C2" s="417"/>
-      <c r="D2" s="417"/>
-      <c r="E2" s="418"/>
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="404"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="416" t="s">
+      <c r="G2" s="402" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
-      <c r="J2" s="417"/>
-      <c r="K2" s="418"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="403"/>
+      <c r="J2" s="403"/>
+      <c r="K2" s="404"/>
       <c r="L2" s="41"/>
-      <c r="M2" s="416" t="s">
+      <c r="M2" s="402" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="417"/>
-      <c r="O2" s="417"/>
-      <c r="P2" s="417"/>
-      <c r="Q2" s="418"/>
+      <c r="N2" s="403"/>
+      <c r="O2" s="403"/>
+      <c r="P2" s="403"/>
+      <c r="Q2" s="404"/>
       <c r="R2" s="41"/>
-      <c r="S2" s="416" t="s">
+      <c r="S2" s="402" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="417"/>
-      <c r="U2" s="417"/>
-      <c r="V2" s="417"/>
-      <c r="W2" s="418"/>
+      <c r="T2" s="403"/>
+      <c r="U2" s="403"/>
+      <c r="V2" s="403"/>
+      <c r="W2" s="404"/>
       <c r="X2" s="41"/>
-      <c r="Y2" s="416" t="s">
+      <c r="Y2" s="402" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="417"/>
-      <c r="AA2" s="417"/>
-      <c r="AB2" s="417"/>
-      <c r="AC2" s="418"/>
+      <c r="Z2" s="403"/>
+      <c r="AA2" s="403"/>
+      <c r="AB2" s="403"/>
+      <c r="AC2" s="404"/>
     </row>
     <row r="3" spans="1:29" ht="26.25">
-      <c r="A3" s="408" t="s">
+      <c r="A3" s="405" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="409"/>
-      <c r="C3" s="409"/>
-      <c r="D3" s="409"/>
-      <c r="E3" s="410"/>
+      <c r="B3" s="406"/>
+      <c r="C3" s="406"/>
+      <c r="D3" s="406"/>
+      <c r="E3" s="407"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="408" t="s">
+      <c r="G3" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="409"/>
-      <c r="I3" s="409"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="410"/>
+      <c r="H3" s="406"/>
+      <c r="I3" s="406"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="407"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="408" t="s">
+      <c r="M3" s="405" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="409"/>
-      <c r="O3" s="409"/>
-      <c r="P3" s="409"/>
-      <c r="Q3" s="410"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="406"/>
+      <c r="P3" s="406"/>
+      <c r="Q3" s="407"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="408" t="s">
+      <c r="S3" s="405" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="409"/>
-      <c r="U3" s="409"/>
-      <c r="V3" s="409"/>
-      <c r="W3" s="410"/>
+      <c r="T3" s="406"/>
+      <c r="U3" s="406"/>
+      <c r="V3" s="406"/>
+      <c r="W3" s="407"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="408" t="s">
+      <c r="Y3" s="405" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="409"/>
-      <c r="AA3" s="409"/>
-      <c r="AB3" s="409"/>
-      <c r="AC3" s="410"/>
+      <c r="Z3" s="406"/>
+      <c r="AA3" s="406"/>
+      <c r="AB3" s="406"/>
+      <c r="AC3" s="407"/>
     </row>
     <row r="4" spans="1:29" ht="26.25">
-      <c r="A4" s="411" t="s">
+      <c r="A4" s="408" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="412"/>
-      <c r="C4" s="413">
+      <c r="B4" s="409"/>
+      <c r="C4" s="410">
         <v>42337</v>
       </c>
-      <c r="D4" s="414"/>
-      <c r="E4" s="415"/>
+      <c r="D4" s="411"/>
+      <c r="E4" s="412"/>
       <c r="F4" s="41"/>
-      <c r="G4" s="411" t="s">
+      <c r="G4" s="408" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="412"/>
-      <c r="I4" s="413">
+      <c r="H4" s="409"/>
+      <c r="I4" s="410">
         <v>42503</v>
       </c>
-      <c r="J4" s="414"/>
-      <c r="K4" s="415"/>
+      <c r="J4" s="411"/>
+      <c r="K4" s="412"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="411" t="s">
+      <c r="M4" s="408" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="412"/>
-      <c r="O4" s="413">
+      <c r="N4" s="409"/>
+      <c r="O4" s="410">
         <v>42337</v>
       </c>
-      <c r="P4" s="414"/>
-      <c r="Q4" s="415"/>
+      <c r="P4" s="411"/>
+      <c r="Q4" s="412"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="411" t="s">
+      <c r="S4" s="408" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="412"/>
-      <c r="U4" s="413">
+      <c r="T4" s="409"/>
+      <c r="U4" s="410">
         <v>42502</v>
       </c>
-      <c r="V4" s="414"/>
-      <c r="W4" s="415"/>
+      <c r="V4" s="411"/>
+      <c r="W4" s="412"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="411" t="s">
+      <c r="Y4" s="408" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="412"/>
-      <c r="AA4" s="413">
+      <c r="Z4" s="409"/>
+      <c r="AA4" s="410">
         <v>42530</v>
       </c>
-      <c r="AB4" s="414"/>
-      <c r="AC4" s="415"/>
+      <c r="AB4" s="411"/>
+      <c r="AC4" s="412"/>
     </row>
     <row r="5" spans="1:29" ht="26.25">
       <c r="A5" s="44">
@@ -42483,6 +42465,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M4:N4"/>
@@ -42495,14 +42485,6 @@
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:W4"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
